--- a/選手記録.xlsx
+++ b/選手記録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="202504実施"/>
@@ -243,13 +243,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -629,6 +629,1986 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7.38</v>
+      </c>
+      <c r="D2" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4">
+        <v>109</v>
+      </c>
+      <c r="H2" s="4">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4">
+        <v>144</v>
+      </c>
+      <c r="G3" s="4">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4">
+        <v>89</v>
+      </c>
+      <c r="I3" s="4">
+        <v>92</v>
+      </c>
+      <c r="J3" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4">
+        <v>139</v>
+      </c>
+      <c r="G4" s="4">
+        <v>105</v>
+      </c>
+      <c r="H4" s="4">
+        <v>110</v>
+      </c>
+      <c r="I4" s="4">
+        <v>94</v>
+      </c>
+      <c r="J4" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4">
+        <v>143</v>
+      </c>
+      <c r="G5" s="4">
+        <v>127</v>
+      </c>
+      <c r="H5" s="4">
+        <v>113</v>
+      </c>
+      <c r="I5" s="4">
+        <v>49</v>
+      </c>
+      <c r="J5" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>94</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116</v>
+      </c>
+      <c r="G6" s="4">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4">
+        <v>104</v>
+      </c>
+      <c r="I6" s="4">
+        <v>88</v>
+      </c>
+      <c r="J6" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4">
+        <v>141</v>
+      </c>
+      <c r="G7" s="4">
+        <v>113</v>
+      </c>
+      <c r="H7" s="4">
+        <v>109</v>
+      </c>
+      <c r="I7" s="4">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.43</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4">
+        <v>109</v>
+      </c>
+      <c r="G8" s="4">
+        <v>126</v>
+      </c>
+      <c r="H8" s="4">
+        <v>91</v>
+      </c>
+      <c r="I8" s="4">
+        <v>76</v>
+      </c>
+      <c r="J8" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4">
+        <v>103</v>
+      </c>
+      <c r="G9" s="4">
+        <v>98</v>
+      </c>
+      <c r="H9" s="4">
+        <v>93</v>
+      </c>
+      <c r="I9" s="4">
+        <v>54</v>
+      </c>
+      <c r="J9" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6.31</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4">
+        <v>106</v>
+      </c>
+      <c r="G10" s="4">
+        <v>118</v>
+      </c>
+      <c r="H10" s="4">
+        <v>93</v>
+      </c>
+      <c r="I10" s="4">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6.84</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4">
+        <v>146</v>
+      </c>
+      <c r="G11" s="4">
+        <v>115</v>
+      </c>
+      <c r="H11" s="4">
+        <v>85</v>
+      </c>
+      <c r="I11" s="4">
+        <v>64</v>
+      </c>
+      <c r="J11" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4">
+        <v>113</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4">
+        <v>110</v>
+      </c>
+      <c r="I12" s="4">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7.42</v>
+      </c>
+      <c r="D13" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4">
+        <v>114</v>
+      </c>
+      <c r="G13" s="4">
+        <v>111</v>
+      </c>
+      <c r="H13" s="4">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4">
+        <v>61</v>
+      </c>
+      <c r="J13" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4">
+        <v>107</v>
+      </c>
+      <c r="G14" s="4">
+        <v>121</v>
+      </c>
+      <c r="H14" s="4">
+        <v>98</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4">
+        <v>113</v>
+      </c>
+      <c r="H15" s="4">
+        <v>85</v>
+      </c>
+      <c r="I15" s="4">
+        <v>46</v>
+      </c>
+      <c r="J15" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4">
+        <v>136</v>
+      </c>
+      <c r="G16" s="4">
+        <v>104</v>
+      </c>
+      <c r="H16" s="4">
+        <v>104</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>87</v>
+      </c>
+      <c r="F17" s="4">
+        <v>135</v>
+      </c>
+      <c r="G17" s="4">
+        <v>116</v>
+      </c>
+      <c r="H17" s="4">
+        <v>114</v>
+      </c>
+      <c r="I17" s="4">
+        <v>56</v>
+      </c>
+      <c r="J17" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="D18" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>81</v>
+      </c>
+      <c r="F18" s="4">
+        <v>101</v>
+      </c>
+      <c r="G18" s="4">
+        <v>98</v>
+      </c>
+      <c r="H18" s="4">
+        <v>116</v>
+      </c>
+      <c r="I18" s="4">
+        <v>49</v>
+      </c>
+      <c r="J18" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4">
+        <v>108</v>
+      </c>
+      <c r="G19" s="4">
+        <v>122</v>
+      </c>
+      <c r="H19" s="4">
+        <v>118</v>
+      </c>
+      <c r="I19" s="4">
+        <v>58</v>
+      </c>
+      <c r="J19" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6.73</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4">
+        <v>114</v>
+      </c>
+      <c r="G20" s="4">
+        <v>90</v>
+      </c>
+      <c r="H20" s="4">
+        <v>94</v>
+      </c>
+      <c r="I20" s="4">
+        <v>96</v>
+      </c>
+      <c r="J20" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4">
+        <v>115</v>
+      </c>
+      <c r="G21" s="4">
+        <v>104</v>
+      </c>
+      <c r="H21" s="4">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4">
+        <v>94</v>
+      </c>
+      <c r="J21" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.15</v>
+      </c>
+      <c r="D22" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>91</v>
+      </c>
+      <c r="F22" s="4">
+        <v>126</v>
+      </c>
+      <c r="G22" s="4">
+        <v>113</v>
+      </c>
+      <c r="H22" s="4">
+        <v>88</v>
+      </c>
+      <c r="I22" s="4">
+        <v>76</v>
+      </c>
+      <c r="J22" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6.63</v>
+      </c>
+      <c r="D23" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4">
+        <v>148</v>
+      </c>
+      <c r="G23" s="4">
+        <v>125</v>
+      </c>
+      <c r="H23" s="4">
+        <v>96</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.52</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4">
+        <v>125</v>
+      </c>
+      <c r="G24" s="4">
+        <v>97</v>
+      </c>
+      <c r="H24" s="4">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4">
+        <v>49</v>
+      </c>
+      <c r="J24" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7.49</v>
+      </c>
+      <c r="D25" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4">
+        <v>93</v>
+      </c>
+      <c r="H25" s="4">
+        <v>85</v>
+      </c>
+      <c r="I25" s="4">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6.91</v>
+      </c>
+      <c r="D26" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4">
+        <v>102</v>
+      </c>
+      <c r="G26" s="4">
+        <v>92</v>
+      </c>
+      <c r="H26" s="4">
+        <v>92</v>
+      </c>
+      <c r="I26" s="4">
+        <v>77</v>
+      </c>
+      <c r="J26" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6.38</v>
+      </c>
+      <c r="D27" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4">
+        <v>127</v>
+      </c>
+      <c r="H27" s="4">
+        <v>102</v>
+      </c>
+      <c r="I27" s="4">
+        <v>49</v>
+      </c>
+      <c r="J27" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4">
+        <v>96</v>
+      </c>
+      <c r="I28" s="4">
+        <v>86</v>
+      </c>
+      <c r="J28" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6.95</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4">
+        <v>129</v>
+      </c>
+      <c r="H29" s="4">
+        <v>80</v>
+      </c>
+      <c r="I29" s="4">
+        <v>95</v>
+      </c>
+      <c r="J29" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>56</v>
+      </c>
+      <c r="F30" s="4">
+        <v>106</v>
+      </c>
+      <c r="G30" s="4">
+        <v>107</v>
+      </c>
+      <c r="H30" s="4">
+        <v>92</v>
+      </c>
+      <c r="I30" s="4">
+        <v>67</v>
+      </c>
+      <c r="J30" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="D31" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>83</v>
+      </c>
+      <c r="F31" s="4">
+        <v>117</v>
+      </c>
+      <c r="G31" s="4">
+        <v>101</v>
+      </c>
+      <c r="H31" s="4">
+        <v>86</v>
+      </c>
+      <c r="I31" s="4">
+        <v>81</v>
+      </c>
+      <c r="J31" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
+        <v>149</v>
+      </c>
+      <c r="G32" s="4">
+        <v>105</v>
+      </c>
+      <c r="H32" s="4">
+        <v>84</v>
+      </c>
+      <c r="I32" s="4">
+        <v>71</v>
+      </c>
+      <c r="J32" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6.72</v>
+      </c>
+      <c r="D33" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>88</v>
+      </c>
+      <c r="F33" s="4">
+        <v>141</v>
+      </c>
+      <c r="G33" s="4">
+        <v>115</v>
+      </c>
+      <c r="H33" s="4">
+        <v>102</v>
+      </c>
+      <c r="I33" s="4">
+        <v>80</v>
+      </c>
+      <c r="J33" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="D34" s="4">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4">
+        <v>106</v>
+      </c>
+      <c r="G34" s="4">
+        <v>93</v>
+      </c>
+      <c r="H34" s="4">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4">
+        <v>51</v>
+      </c>
+      <c r="J34" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6.48</v>
+      </c>
+      <c r="D35" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>50</v>
+      </c>
+      <c r="F35" s="4">
+        <v>117</v>
+      </c>
+      <c r="G35" s="4">
+        <v>122</v>
+      </c>
+      <c r="H35" s="4">
+        <v>104</v>
+      </c>
+      <c r="I35" s="4">
+        <v>40</v>
+      </c>
+      <c r="J35" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6">
+        <v>6.07</v>
+      </c>
+      <c r="D36" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4">
+        <v>129</v>
+      </c>
+      <c r="G36" s="4">
+        <v>125</v>
+      </c>
+      <c r="H36" s="4">
+        <v>87</v>
+      </c>
+      <c r="I36" s="4">
+        <v>86</v>
+      </c>
+      <c r="J36" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7.16</v>
+      </c>
+      <c r="D37" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4">
+        <v>117</v>
+      </c>
+      <c r="G37" s="4">
+        <v>106</v>
+      </c>
+      <c r="H37" s="4">
+        <v>80</v>
+      </c>
+      <c r="I37" s="4">
+        <v>60</v>
+      </c>
+      <c r="J37" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6.87</v>
+      </c>
+      <c r="D38" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>51</v>
+      </c>
+      <c r="F38" s="4">
+        <v>132</v>
+      </c>
+      <c r="G38" s="4">
+        <v>102</v>
+      </c>
+      <c r="H38" s="4">
+        <v>108</v>
+      </c>
+      <c r="I38" s="4">
+        <v>83</v>
+      </c>
+      <c r="J38" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="D39" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4">
+        <v>147</v>
+      </c>
+      <c r="G39" s="4">
+        <v>94</v>
+      </c>
+      <c r="H39" s="4">
+        <v>97</v>
+      </c>
+      <c r="I39" s="4">
+        <v>92</v>
+      </c>
+      <c r="J39" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4">
+        <v>138</v>
+      </c>
+      <c r="G40" s="4">
+        <v>94</v>
+      </c>
+      <c r="H40" s="4">
+        <v>96</v>
+      </c>
+      <c r="I40" s="4">
+        <v>44</v>
+      </c>
+      <c r="J40" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="D41" s="4">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4">
+        <v>71</v>
+      </c>
+      <c r="F41" s="4">
+        <v>134</v>
+      </c>
+      <c r="G41" s="4">
+        <v>101</v>
+      </c>
+      <c r="H41" s="4">
+        <v>113</v>
+      </c>
+      <c r="I41" s="4">
+        <v>66</v>
+      </c>
+      <c r="J41" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="D42" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>72</v>
+      </c>
+      <c r="F42" s="4">
+        <v>147</v>
+      </c>
+      <c r="G42" s="4">
+        <v>109</v>
+      </c>
+      <c r="H42" s="4">
+        <v>112</v>
+      </c>
+      <c r="I42" s="4">
+        <v>49</v>
+      </c>
+      <c r="J42" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7.32</v>
+      </c>
+      <c r="D43" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>58</v>
+      </c>
+      <c r="F43" s="4">
+        <v>141</v>
+      </c>
+      <c r="G43" s="4">
+        <v>98</v>
+      </c>
+      <c r="H43" s="4">
+        <v>113</v>
+      </c>
+      <c r="I43" s="4">
+        <v>97</v>
+      </c>
+      <c r="J43" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6.14</v>
+      </c>
+      <c r="D44" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E44" s="4">
+        <v>56</v>
+      </c>
+      <c r="F44" s="4">
+        <v>101</v>
+      </c>
+      <c r="G44" s="4">
+        <v>112</v>
+      </c>
+      <c r="H44" s="4">
+        <v>117</v>
+      </c>
+      <c r="I44" s="4">
+        <v>72</v>
+      </c>
+      <c r="J44" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>7.48</v>
+      </c>
+      <c r="D45" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="E45" s="4">
+        <v>86</v>
+      </c>
+      <c r="F45" s="4">
+        <v>107</v>
+      </c>
+      <c r="G45" s="4">
+        <v>126</v>
+      </c>
+      <c r="H45" s="4">
+        <v>119</v>
+      </c>
+      <c r="I45" s="4">
+        <v>43</v>
+      </c>
+      <c r="J45" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>67</v>
+      </c>
+      <c r="F46" s="4">
+        <v>125</v>
+      </c>
+      <c r="G46" s="4">
+        <v>102</v>
+      </c>
+      <c r="H46" s="4">
+        <v>113</v>
+      </c>
+      <c r="I46" s="4">
+        <v>66</v>
+      </c>
+      <c r="J46" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="D47" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>79</v>
+      </c>
+      <c r="F47" s="4">
+        <v>137</v>
+      </c>
+      <c r="G47" s="4">
+        <v>109</v>
+      </c>
+      <c r="H47" s="4">
+        <v>106</v>
+      </c>
+      <c r="I47" s="4">
+        <v>49</v>
+      </c>
+      <c r="J47" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4">
+        <v>3</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="D48" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>82</v>
+      </c>
+      <c r="F48" s="4">
+        <v>143</v>
+      </c>
+      <c r="G48" s="4">
+        <v>114</v>
+      </c>
+      <c r="H48" s="4">
+        <v>100</v>
+      </c>
+      <c r="I48" s="4">
+        <v>83</v>
+      </c>
+      <c r="J48" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7.43</v>
+      </c>
+      <c r="D49" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>83</v>
+      </c>
+      <c r="F49" s="4">
+        <v>117</v>
+      </c>
+      <c r="G49" s="4">
+        <v>122</v>
+      </c>
+      <c r="H49" s="4">
+        <v>112</v>
+      </c>
+      <c r="I49" s="4">
+        <v>61</v>
+      </c>
+      <c r="J49" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D50" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>76</v>
+      </c>
+      <c r="F50" s="4">
+        <v>137</v>
+      </c>
+      <c r="G50" s="4">
+        <v>129</v>
+      </c>
+      <c r="H50" s="4">
+        <v>88</v>
+      </c>
+      <c r="I50" s="4">
+        <v>94</v>
+      </c>
+      <c r="J50" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="D51" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E51" s="4">
+        <v>77</v>
+      </c>
+      <c r="F51" s="4">
+        <v>129</v>
+      </c>
+      <c r="G51" s="4">
+        <v>108</v>
+      </c>
+      <c r="H51" s="4">
+        <v>97</v>
+      </c>
+      <c r="I51" s="4">
+        <v>62</v>
+      </c>
+      <c r="J51" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D52" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>66</v>
+      </c>
+      <c r="F52" s="4">
+        <v>106</v>
+      </c>
+      <c r="G52" s="4">
+        <v>112</v>
+      </c>
+      <c r="H52" s="4">
+        <v>106</v>
+      </c>
+      <c r="I52" s="4">
+        <v>83</v>
+      </c>
+      <c r="J52" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="6">
+        <v>7.12</v>
+      </c>
+      <c r="D53" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E53" s="4">
+        <v>95</v>
+      </c>
+      <c r="F53" s="4">
+        <v>105</v>
+      </c>
+      <c r="G53" s="4">
+        <v>112</v>
+      </c>
+      <c r="H53" s="4">
+        <v>109</v>
+      </c>
+      <c r="I53" s="4">
+        <v>62</v>
+      </c>
+      <c r="J53" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D54" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E54" s="4">
+        <v>69</v>
+      </c>
+      <c r="F54" s="4">
+        <v>146</v>
+      </c>
+      <c r="G54" s="4">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4">
+        <v>101</v>
+      </c>
+      <c r="I54" s="4">
+        <v>79</v>
+      </c>
+      <c r="J54" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="D55" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>73</v>
+      </c>
+      <c r="F55" s="4">
+        <v>126</v>
+      </c>
+      <c r="G55" s="4">
+        <v>112</v>
+      </c>
+      <c r="H55" s="4">
+        <v>114</v>
+      </c>
+      <c r="I55" s="4">
+        <v>76</v>
+      </c>
+      <c r="J55" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6.41</v>
+      </c>
+      <c r="D56" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>81</v>
+      </c>
+      <c r="F56" s="4">
+        <v>141</v>
+      </c>
+      <c r="G56" s="4">
+        <v>121</v>
+      </c>
+      <c r="H56" s="4">
+        <v>113</v>
+      </c>
+      <c r="I56" s="4">
+        <v>55</v>
+      </c>
+      <c r="J56" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="D57" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>92</v>
+      </c>
+      <c r="F57" s="4">
+        <v>116</v>
+      </c>
+      <c r="G57" s="4">
+        <v>129</v>
+      </c>
+      <c r="H57" s="4">
+        <v>115</v>
+      </c>
+      <c r="I57" s="4">
+        <v>50</v>
+      </c>
+      <c r="J57" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6.73</v>
+      </c>
+      <c r="D58" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>71</v>
+      </c>
+      <c r="F58" s="4">
+        <v>103</v>
+      </c>
+      <c r="G58" s="4">
+        <v>99</v>
+      </c>
+      <c r="H58" s="4">
+        <v>83</v>
+      </c>
+      <c r="I58" s="4">
+        <v>44</v>
+      </c>
+      <c r="J58" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="D59" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E59" s="4">
+        <v>96</v>
+      </c>
+      <c r="F59" s="4">
+        <v>100</v>
+      </c>
+      <c r="G59" s="4">
+        <v>105</v>
+      </c>
+      <c r="H59" s="4">
+        <v>94</v>
+      </c>
+      <c r="I59" s="4">
+        <v>64</v>
+      </c>
+      <c r="J59" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="E60" s="4">
+        <v>76</v>
+      </c>
+      <c r="F60" s="4">
+        <v>129</v>
+      </c>
+      <c r="G60" s="4">
+        <v>107</v>
+      </c>
+      <c r="H60" s="4">
+        <v>80</v>
+      </c>
+      <c r="I60" s="4">
+        <v>71</v>
+      </c>
+      <c r="J60" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="6">
+        <v>7.42</v>
+      </c>
+      <c r="D61" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>92</v>
+      </c>
+      <c r="F61" s="4">
+        <v>114</v>
+      </c>
+      <c r="G61" s="4">
+        <v>121</v>
+      </c>
+      <c r="H61" s="4">
+        <v>95</v>
+      </c>
+      <c r="I61" s="4">
+        <v>93</v>
+      </c>
+      <c r="J61" s="4">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,1986 +2657,6 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>7.38</v>
-      </c>
-      <c r="D2" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4">
-        <v>101</v>
-      </c>
-      <c r="G2" s="4">
-        <v>109</v>
-      </c>
-      <c r="H2" s="4">
-        <v>110</v>
-      </c>
-      <c r="I2" s="4">
-        <v>66</v>
-      </c>
-      <c r="J2" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>7.19</v>
-      </c>
-      <c r="D3" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4">
-        <v>144</v>
-      </c>
-      <c r="G3" s="4">
-        <v>106</v>
-      </c>
-      <c r="H3" s="4">
-        <v>89</v>
-      </c>
-      <c r="I3" s="4">
-        <v>92</v>
-      </c>
-      <c r="J3" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4">
-        <v>139</v>
-      </c>
-      <c r="G4" s="4">
-        <v>105</v>
-      </c>
-      <c r="H4" s="4">
-        <v>110</v>
-      </c>
-      <c r="I4" s="4">
-        <v>94</v>
-      </c>
-      <c r="J4" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>62</v>
-      </c>
-      <c r="F5" s="4">
-        <v>143</v>
-      </c>
-      <c r="G5" s="4">
-        <v>127</v>
-      </c>
-      <c r="H5" s="4">
-        <v>113</v>
-      </c>
-      <c r="I5" s="4">
-        <v>49</v>
-      </c>
-      <c r="J5" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="D6" s="4">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>94</v>
-      </c>
-      <c r="F6" s="4">
-        <v>116</v>
-      </c>
-      <c r="G6" s="4">
-        <v>120</v>
-      </c>
-      <c r="H6" s="4">
-        <v>104</v>
-      </c>
-      <c r="I6" s="4">
-        <v>88</v>
-      </c>
-      <c r="J6" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D7" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4">
-        <v>141</v>
-      </c>
-      <c r="G7" s="4">
-        <v>113</v>
-      </c>
-      <c r="H7" s="4">
-        <v>109</v>
-      </c>
-      <c r="I7" s="4">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7.43</v>
-      </c>
-      <c r="D8" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>79</v>
-      </c>
-      <c r="F8" s="4">
-        <v>109</v>
-      </c>
-      <c r="G8" s="4">
-        <v>126</v>
-      </c>
-      <c r="H8" s="4">
-        <v>91</v>
-      </c>
-      <c r="I8" s="4">
-        <v>76</v>
-      </c>
-      <c r="J8" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6.33</v>
-      </c>
-      <c r="D9" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4">
-        <v>103</v>
-      </c>
-      <c r="G9" s="4">
-        <v>98</v>
-      </c>
-      <c r="H9" s="4">
-        <v>93</v>
-      </c>
-      <c r="I9" s="4">
-        <v>54</v>
-      </c>
-      <c r="J9" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6.31</v>
-      </c>
-      <c r="D10" s="4">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4">
-        <v>106</v>
-      </c>
-      <c r="G10" s="4">
-        <v>118</v>
-      </c>
-      <c r="H10" s="4">
-        <v>93</v>
-      </c>
-      <c r="I10" s="4">
-        <v>48</v>
-      </c>
-      <c r="J10" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6.84</v>
-      </c>
-      <c r="D11" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4">
-        <v>146</v>
-      </c>
-      <c r="G11" s="4">
-        <v>115</v>
-      </c>
-      <c r="H11" s="4">
-        <v>85</v>
-      </c>
-      <c r="I11" s="4">
-        <v>64</v>
-      </c>
-      <c r="J11" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4">
-        <v>113</v>
-      </c>
-      <c r="G12" s="4">
-        <v>120</v>
-      </c>
-      <c r="H12" s="4">
-        <v>110</v>
-      </c>
-      <c r="I12" s="4">
-        <v>42</v>
-      </c>
-      <c r="J12" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7.42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>97</v>
-      </c>
-      <c r="F13" s="4">
-        <v>114</v>
-      </c>
-      <c r="G13" s="4">
-        <v>111</v>
-      </c>
-      <c r="H13" s="4">
-        <v>91</v>
-      </c>
-      <c r="I13" s="4">
-        <v>61</v>
-      </c>
-      <c r="J13" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4">
-        <v>107</v>
-      </c>
-      <c r="G14" s="4">
-        <v>121</v>
-      </c>
-      <c r="H14" s="4">
-        <v>98</v>
-      </c>
-      <c r="I14" s="4">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="D15" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4">
-        <v>106</v>
-      </c>
-      <c r="G15" s="4">
-        <v>113</v>
-      </c>
-      <c r="H15" s="4">
-        <v>85</v>
-      </c>
-      <c r="I15" s="4">
-        <v>46</v>
-      </c>
-      <c r="J15" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6.78</v>
-      </c>
-      <c r="D16" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>97</v>
-      </c>
-      <c r="F16" s="4">
-        <v>136</v>
-      </c>
-      <c r="G16" s="4">
-        <v>104</v>
-      </c>
-      <c r="H16" s="4">
-        <v>104</v>
-      </c>
-      <c r="I16" s="4">
-        <v>42</v>
-      </c>
-      <c r="J16" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>87</v>
-      </c>
-      <c r="F17" s="4">
-        <v>135</v>
-      </c>
-      <c r="G17" s="4">
-        <v>116</v>
-      </c>
-      <c r="H17" s="4">
-        <v>114</v>
-      </c>
-      <c r="I17" s="4">
-        <v>56</v>
-      </c>
-      <c r="J17" s="4">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>11.6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>81</v>
-      </c>
-      <c r="F18" s="4">
-        <v>101</v>
-      </c>
-      <c r="G18" s="4">
-        <v>98</v>
-      </c>
-      <c r="H18" s="4">
-        <v>116</v>
-      </c>
-      <c r="I18" s="4">
-        <v>49</v>
-      </c>
-      <c r="J18" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>62</v>
-      </c>
-      <c r="F19" s="4">
-        <v>108</v>
-      </c>
-      <c r="G19" s="4">
-        <v>122</v>
-      </c>
-      <c r="H19" s="4">
-        <v>118</v>
-      </c>
-      <c r="I19" s="4">
-        <v>58</v>
-      </c>
-      <c r="J19" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6.73</v>
-      </c>
-      <c r="D20" s="4">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4">
-        <v>92</v>
-      </c>
-      <c r="F20" s="4">
-        <v>114</v>
-      </c>
-      <c r="G20" s="4">
-        <v>90</v>
-      </c>
-      <c r="H20" s="4">
-        <v>94</v>
-      </c>
-      <c r="I20" s="4">
-        <v>96</v>
-      </c>
-      <c r="J20" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="D21" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="E21" s="4">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4">
-        <v>115</v>
-      </c>
-      <c r="G21" s="4">
-        <v>104</v>
-      </c>
-      <c r="H21" s="4">
-        <v>93</v>
-      </c>
-      <c r="I21" s="4">
-        <v>94</v>
-      </c>
-      <c r="J21" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7.15</v>
-      </c>
-      <c r="D22" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>91</v>
-      </c>
-      <c r="F22" s="4">
-        <v>126</v>
-      </c>
-      <c r="G22" s="4">
-        <v>113</v>
-      </c>
-      <c r="H22" s="4">
-        <v>88</v>
-      </c>
-      <c r="I22" s="4">
-        <v>76</v>
-      </c>
-      <c r="J22" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6.63</v>
-      </c>
-      <c r="D23" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4">
-        <v>148</v>
-      </c>
-      <c r="G23" s="4">
-        <v>125</v>
-      </c>
-      <c r="H23" s="4">
-        <v>96</v>
-      </c>
-      <c r="I23" s="4">
-        <v>43</v>
-      </c>
-      <c r="J23" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6.52</v>
-      </c>
-      <c r="D24" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>66</v>
-      </c>
-      <c r="F24" s="4">
-        <v>125</v>
-      </c>
-      <c r="G24" s="4">
-        <v>97</v>
-      </c>
-      <c r="H24" s="4">
-        <v>91</v>
-      </c>
-      <c r="I24" s="4">
-        <v>49</v>
-      </c>
-      <c r="J24" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6">
-        <v>7.49</v>
-      </c>
-      <c r="D25" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>69</v>
-      </c>
-      <c r="F25" s="4">
-        <v>124</v>
-      </c>
-      <c r="G25" s="4">
-        <v>93</v>
-      </c>
-      <c r="H25" s="4">
-        <v>85</v>
-      </c>
-      <c r="I25" s="4">
-        <v>46</v>
-      </c>
-      <c r="J25" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6">
-        <v>6.91</v>
-      </c>
-      <c r="D26" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>67</v>
-      </c>
-      <c r="F26" s="4">
-        <v>102</v>
-      </c>
-      <c r="G26" s="4">
-        <v>92</v>
-      </c>
-      <c r="H26" s="4">
-        <v>92</v>
-      </c>
-      <c r="I26" s="4">
-        <v>77</v>
-      </c>
-      <c r="J26" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6.38</v>
-      </c>
-      <c r="D27" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>74</v>
-      </c>
-      <c r="F27" s="4">
-        <v>112</v>
-      </c>
-      <c r="G27" s="4">
-        <v>127</v>
-      </c>
-      <c r="H27" s="4">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4">
-        <v>49</v>
-      </c>
-      <c r="J27" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="D28" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>81</v>
-      </c>
-      <c r="F28" s="4">
-        <v>145</v>
-      </c>
-      <c r="G28" s="4">
-        <v>110</v>
-      </c>
-      <c r="H28" s="4">
-        <v>96</v>
-      </c>
-      <c r="I28" s="4">
-        <v>86</v>
-      </c>
-      <c r="J28" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6.95</v>
-      </c>
-      <c r="D29" s="4">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
-        <v>80</v>
-      </c>
-      <c r="F29" s="4">
-        <v>133</v>
-      </c>
-      <c r="G29" s="4">
-        <v>129</v>
-      </c>
-      <c r="H29" s="4">
-        <v>80</v>
-      </c>
-      <c r="I29" s="4">
-        <v>95</v>
-      </c>
-      <c r="J29" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="6">
-        <v>7.46</v>
-      </c>
-      <c r="D30" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>56</v>
-      </c>
-      <c r="F30" s="4">
-        <v>106</v>
-      </c>
-      <c r="G30" s="4">
-        <v>107</v>
-      </c>
-      <c r="H30" s="4">
-        <v>92</v>
-      </c>
-      <c r="I30" s="4">
-        <v>67</v>
-      </c>
-      <c r="J30" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6.98</v>
-      </c>
-      <c r="D31" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E31" s="4">
-        <v>83</v>
-      </c>
-      <c r="F31" s="4">
-        <v>117</v>
-      </c>
-      <c r="G31" s="4">
-        <v>101</v>
-      </c>
-      <c r="H31" s="4">
-        <v>86</v>
-      </c>
-      <c r="I31" s="4">
-        <v>81</v>
-      </c>
-      <c r="J31" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="D32" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4">
-        <v>149</v>
-      </c>
-      <c r="G32" s="4">
-        <v>105</v>
-      </c>
-      <c r="H32" s="4">
-        <v>84</v>
-      </c>
-      <c r="I32" s="4">
-        <v>71</v>
-      </c>
-      <c r="J32" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="6">
-        <v>6.72</v>
-      </c>
-      <c r="D33" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>88</v>
-      </c>
-      <c r="F33" s="4">
-        <v>141</v>
-      </c>
-      <c r="G33" s="4">
-        <v>115</v>
-      </c>
-      <c r="H33" s="4">
-        <v>102</v>
-      </c>
-      <c r="I33" s="4">
-        <v>80</v>
-      </c>
-      <c r="J33" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="6">
-        <v>7.21</v>
-      </c>
-      <c r="D34" s="4">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4">
-        <v>54</v>
-      </c>
-      <c r="F34" s="4">
-        <v>106</v>
-      </c>
-      <c r="G34" s="4">
-        <v>93</v>
-      </c>
-      <c r="H34" s="4">
-        <v>99</v>
-      </c>
-      <c r="I34" s="4">
-        <v>51</v>
-      </c>
-      <c r="J34" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="6">
-        <v>6.48</v>
-      </c>
-      <c r="D35" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>50</v>
-      </c>
-      <c r="F35" s="4">
-        <v>117</v>
-      </c>
-      <c r="G35" s="4">
-        <v>122</v>
-      </c>
-      <c r="H35" s="4">
-        <v>104</v>
-      </c>
-      <c r="I35" s="4">
-        <v>40</v>
-      </c>
-      <c r="J35" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="6">
-        <v>6.07</v>
-      </c>
-      <c r="D36" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>95</v>
-      </c>
-      <c r="F36" s="4">
-        <v>129</v>
-      </c>
-      <c r="G36" s="4">
-        <v>125</v>
-      </c>
-      <c r="H36" s="4">
-        <v>87</v>
-      </c>
-      <c r="I36" s="4">
-        <v>86</v>
-      </c>
-      <c r="J36" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="6">
-        <v>7.16</v>
-      </c>
-      <c r="D37" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>90</v>
-      </c>
-      <c r="F37" s="4">
-        <v>117</v>
-      </c>
-      <c r="G37" s="4">
-        <v>106</v>
-      </c>
-      <c r="H37" s="4">
-        <v>80</v>
-      </c>
-      <c r="I37" s="4">
-        <v>60</v>
-      </c>
-      <c r="J37" s="4">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6">
-        <v>6.87</v>
-      </c>
-      <c r="D38" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>51</v>
-      </c>
-      <c r="F38" s="4">
-        <v>132</v>
-      </c>
-      <c r="G38" s="4">
-        <v>102</v>
-      </c>
-      <c r="H38" s="4">
-        <v>108</v>
-      </c>
-      <c r="I38" s="4">
-        <v>83</v>
-      </c>
-      <c r="J38" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="6">
-        <v>6.37</v>
-      </c>
-      <c r="D39" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E39" s="4">
-        <v>81</v>
-      </c>
-      <c r="F39" s="4">
-        <v>147</v>
-      </c>
-      <c r="G39" s="4">
-        <v>94</v>
-      </c>
-      <c r="H39" s="4">
-        <v>97</v>
-      </c>
-      <c r="I39" s="4">
-        <v>92</v>
-      </c>
-      <c r="J39" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
-        <v>2</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="6">
-        <v>6.53</v>
-      </c>
-      <c r="D40" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E40" s="4">
-        <v>81</v>
-      </c>
-      <c r="F40" s="4">
-        <v>138</v>
-      </c>
-      <c r="G40" s="4">
-        <v>94</v>
-      </c>
-      <c r="H40" s="4">
-        <v>96</v>
-      </c>
-      <c r="I40" s="4">
-        <v>44</v>
-      </c>
-      <c r="J40" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="D41" s="4">
-        <v>13</v>
-      </c>
-      <c r="E41" s="4">
-        <v>71</v>
-      </c>
-      <c r="F41" s="4">
-        <v>134</v>
-      </c>
-      <c r="G41" s="4">
-        <v>101</v>
-      </c>
-      <c r="H41" s="4">
-        <v>113</v>
-      </c>
-      <c r="I41" s="4">
-        <v>66</v>
-      </c>
-      <c r="J41" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="6">
-        <v>6.34</v>
-      </c>
-      <c r="D42" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>72</v>
-      </c>
-      <c r="F42" s="4">
-        <v>147</v>
-      </c>
-      <c r="G42" s="4">
-        <v>109</v>
-      </c>
-      <c r="H42" s="4">
-        <v>112</v>
-      </c>
-      <c r="I42" s="4">
-        <v>49</v>
-      </c>
-      <c r="J42" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
-        <v>3</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="6">
-        <v>7.32</v>
-      </c>
-      <c r="D43" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E43" s="4">
-        <v>58</v>
-      </c>
-      <c r="F43" s="4">
-        <v>141</v>
-      </c>
-      <c r="G43" s="4">
-        <v>98</v>
-      </c>
-      <c r="H43" s="4">
-        <v>113</v>
-      </c>
-      <c r="I43" s="4">
-        <v>97</v>
-      </c>
-      <c r="J43" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="6">
-        <v>6.14</v>
-      </c>
-      <c r="D44" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="E44" s="4">
-        <v>56</v>
-      </c>
-      <c r="F44" s="4">
-        <v>101</v>
-      </c>
-      <c r="G44" s="4">
-        <v>112</v>
-      </c>
-      <c r="H44" s="4">
-        <v>117</v>
-      </c>
-      <c r="I44" s="4">
-        <v>72</v>
-      </c>
-      <c r="J44" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="6">
-        <v>7.48</v>
-      </c>
-      <c r="D45" s="6">
-        <v>13.7</v>
-      </c>
-      <c r="E45" s="4">
-        <v>86</v>
-      </c>
-      <c r="F45" s="4">
-        <v>107</v>
-      </c>
-      <c r="G45" s="4">
-        <v>126</v>
-      </c>
-      <c r="H45" s="4">
-        <v>119</v>
-      </c>
-      <c r="I45" s="4">
-        <v>43</v>
-      </c>
-      <c r="J45" s="4">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
-        <v>3</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>67</v>
-      </c>
-      <c r="F46" s="4">
-        <v>125</v>
-      </c>
-      <c r="G46" s="4">
-        <v>102</v>
-      </c>
-      <c r="H46" s="4">
-        <v>113</v>
-      </c>
-      <c r="I46" s="4">
-        <v>66</v>
-      </c>
-      <c r="J46" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
-        <v>3</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="D47" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>79</v>
-      </c>
-      <c r="F47" s="4">
-        <v>137</v>
-      </c>
-      <c r="G47" s="4">
-        <v>109</v>
-      </c>
-      <c r="H47" s="4">
-        <v>106</v>
-      </c>
-      <c r="I47" s="4">
-        <v>49</v>
-      </c>
-      <c r="J47" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="6">
-        <v>6.33</v>
-      </c>
-      <c r="D48" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>82</v>
-      </c>
-      <c r="F48" s="4">
-        <v>143</v>
-      </c>
-      <c r="G48" s="4">
-        <v>114</v>
-      </c>
-      <c r="H48" s="4">
-        <v>100</v>
-      </c>
-      <c r="I48" s="4">
-        <v>83</v>
-      </c>
-      <c r="J48" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
-        <v>3</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="6">
-        <v>7.43</v>
-      </c>
-      <c r="D49" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E49" s="4">
-        <v>83</v>
-      </c>
-      <c r="F49" s="4">
-        <v>117</v>
-      </c>
-      <c r="G49" s="4">
-        <v>122</v>
-      </c>
-      <c r="H49" s="4">
-        <v>112</v>
-      </c>
-      <c r="I49" s="4">
-        <v>61</v>
-      </c>
-      <c r="J49" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
-        <v>3</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D50" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E50" s="4">
-        <v>76</v>
-      </c>
-      <c r="F50" s="4">
-        <v>137</v>
-      </c>
-      <c r="G50" s="4">
-        <v>129</v>
-      </c>
-      <c r="H50" s="4">
-        <v>88</v>
-      </c>
-      <c r="I50" s="4">
-        <v>94</v>
-      </c>
-      <c r="J50" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4">
-        <v>3</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="6">
-        <v>6.04</v>
-      </c>
-      <c r="D51" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>77</v>
-      </c>
-      <c r="F51" s="4">
-        <v>129</v>
-      </c>
-      <c r="G51" s="4">
-        <v>108</v>
-      </c>
-      <c r="H51" s="4">
-        <v>97</v>
-      </c>
-      <c r="I51" s="4">
-        <v>62</v>
-      </c>
-      <c r="J51" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
-        <v>3</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D52" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>66</v>
-      </c>
-      <c r="F52" s="4">
-        <v>106</v>
-      </c>
-      <c r="G52" s="4">
-        <v>112</v>
-      </c>
-      <c r="H52" s="4">
-        <v>106</v>
-      </c>
-      <c r="I52" s="4">
-        <v>83</v>
-      </c>
-      <c r="J52" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
-        <v>3</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="6">
-        <v>7.12</v>
-      </c>
-      <c r="D53" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E53" s="4">
-        <v>95</v>
-      </c>
-      <c r="F53" s="4">
-        <v>105</v>
-      </c>
-      <c r="G53" s="4">
-        <v>112</v>
-      </c>
-      <c r="H53" s="4">
-        <v>109</v>
-      </c>
-      <c r="I53" s="4">
-        <v>62</v>
-      </c>
-      <c r="J53" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4">
-        <v>3</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D54" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="E54" s="4">
-        <v>69</v>
-      </c>
-      <c r="F54" s="4">
-        <v>146</v>
-      </c>
-      <c r="G54" s="4">
-        <v>114</v>
-      </c>
-      <c r="H54" s="4">
-        <v>101</v>
-      </c>
-      <c r="I54" s="4">
-        <v>79</v>
-      </c>
-      <c r="J54" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4">
-        <v>3</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="6">
-        <v>6.15</v>
-      </c>
-      <c r="D55" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E55" s="4">
-        <v>73</v>
-      </c>
-      <c r="F55" s="4">
-        <v>126</v>
-      </c>
-      <c r="G55" s="4">
-        <v>112</v>
-      </c>
-      <c r="H55" s="4">
-        <v>114</v>
-      </c>
-      <c r="I55" s="4">
-        <v>76</v>
-      </c>
-      <c r="J55" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4">
-        <v>3</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="6">
-        <v>6.41</v>
-      </c>
-      <c r="D56" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>81</v>
-      </c>
-      <c r="F56" s="4">
-        <v>141</v>
-      </c>
-      <c r="G56" s="4">
-        <v>121</v>
-      </c>
-      <c r="H56" s="4">
-        <v>113</v>
-      </c>
-      <c r="I56" s="4">
-        <v>55</v>
-      </c>
-      <c r="J56" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4">
-        <v>3</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="D57" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>92</v>
-      </c>
-      <c r="F57" s="4">
-        <v>116</v>
-      </c>
-      <c r="G57" s="4">
-        <v>129</v>
-      </c>
-      <c r="H57" s="4">
-        <v>115</v>
-      </c>
-      <c r="I57" s="4">
-        <v>50</v>
-      </c>
-      <c r="J57" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4">
-        <v>3</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="6">
-        <v>6.73</v>
-      </c>
-      <c r="D58" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="E58" s="4">
-        <v>71</v>
-      </c>
-      <c r="F58" s="4">
-        <v>103</v>
-      </c>
-      <c r="G58" s="4">
-        <v>99</v>
-      </c>
-      <c r="H58" s="4">
-        <v>83</v>
-      </c>
-      <c r="I58" s="4">
-        <v>44</v>
-      </c>
-      <c r="J58" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4">
-        <v>3</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="D59" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="E59" s="4">
-        <v>96</v>
-      </c>
-      <c r="F59" s="4">
-        <v>100</v>
-      </c>
-      <c r="G59" s="4">
-        <v>105</v>
-      </c>
-      <c r="H59" s="4">
-        <v>94</v>
-      </c>
-      <c r="I59" s="4">
-        <v>64</v>
-      </c>
-      <c r="J59" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4">
-        <v>3</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="D60" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="E60" s="4">
-        <v>76</v>
-      </c>
-      <c r="F60" s="4">
-        <v>129</v>
-      </c>
-      <c r="G60" s="4">
-        <v>107</v>
-      </c>
-      <c r="H60" s="4">
-        <v>80</v>
-      </c>
-      <c r="I60" s="4">
-        <v>71</v>
-      </c>
-      <c r="J60" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4">
-        <v>3</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="6">
-        <v>7.42</v>
-      </c>
-      <c r="D61" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>92</v>
-      </c>
-      <c r="F61" s="4">
-        <v>114</v>
-      </c>
-      <c r="G61" s="4">
-        <v>121</v>
-      </c>
-      <c r="H61" s="4">
-        <v>95</v>
-      </c>
-      <c r="I61" s="4">
-        <v>93</v>
-      </c>
-      <c r="J61" s="4">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:J61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="4">
         <v>1</v>
       </c>

--- a/選手記録.xlsx
+++ b/選手記録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="202504実施"/>
@@ -629,6 +629,1986 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7.38</v>
+      </c>
+      <c r="D2" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4">
+        <v>109</v>
+      </c>
+      <c r="H2" s="4">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4">
+        <v>66</v>
+      </c>
+      <c r="J2" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4">
+        <v>144</v>
+      </c>
+      <c r="G3" s="4">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4">
+        <v>89</v>
+      </c>
+      <c r="I3" s="4">
+        <v>92</v>
+      </c>
+      <c r="J3" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4">
+        <v>139</v>
+      </c>
+      <c r="G4" s="4">
+        <v>105</v>
+      </c>
+      <c r="H4" s="4">
+        <v>110</v>
+      </c>
+      <c r="I4" s="4">
+        <v>94</v>
+      </c>
+      <c r="J4" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4">
+        <v>143</v>
+      </c>
+      <c r="G5" s="4">
+        <v>127</v>
+      </c>
+      <c r="H5" s="4">
+        <v>113</v>
+      </c>
+      <c r="I5" s="4">
+        <v>49</v>
+      </c>
+      <c r="J5" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>94</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116</v>
+      </c>
+      <c r="G6" s="4">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4">
+        <v>104</v>
+      </c>
+      <c r="I6" s="4">
+        <v>88</v>
+      </c>
+      <c r="J6" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4">
+        <v>141</v>
+      </c>
+      <c r="G7" s="4">
+        <v>113</v>
+      </c>
+      <c r="H7" s="4">
+        <v>109</v>
+      </c>
+      <c r="I7" s="4">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.43</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4">
+        <v>109</v>
+      </c>
+      <c r="G8" s="4">
+        <v>126</v>
+      </c>
+      <c r="H8" s="4">
+        <v>91</v>
+      </c>
+      <c r="I8" s="4">
+        <v>76</v>
+      </c>
+      <c r="J8" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4">
+        <v>103</v>
+      </c>
+      <c r="G9" s="4">
+        <v>98</v>
+      </c>
+      <c r="H9" s="4">
+        <v>93</v>
+      </c>
+      <c r="I9" s="4">
+        <v>54</v>
+      </c>
+      <c r="J9" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6.31</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4">
+        <v>106</v>
+      </c>
+      <c r="G10" s="4">
+        <v>118</v>
+      </c>
+      <c r="H10" s="4">
+        <v>93</v>
+      </c>
+      <c r="I10" s="4">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6.84</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4">
+        <v>146</v>
+      </c>
+      <c r="G11" s="4">
+        <v>115</v>
+      </c>
+      <c r="H11" s="4">
+        <v>85</v>
+      </c>
+      <c r="I11" s="4">
+        <v>64</v>
+      </c>
+      <c r="J11" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4">
+        <v>113</v>
+      </c>
+      <c r="G12" s="4">
+        <v>120</v>
+      </c>
+      <c r="H12" s="4">
+        <v>110</v>
+      </c>
+      <c r="I12" s="4">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7.42</v>
+      </c>
+      <c r="D13" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4">
+        <v>114</v>
+      </c>
+      <c r="G13" s="4">
+        <v>111</v>
+      </c>
+      <c r="H13" s="4">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4">
+        <v>61</v>
+      </c>
+      <c r="J13" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4">
+        <v>107</v>
+      </c>
+      <c r="G14" s="4">
+        <v>121</v>
+      </c>
+      <c r="H14" s="4">
+        <v>98</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4">
+        <v>106</v>
+      </c>
+      <c r="G15" s="4">
+        <v>113</v>
+      </c>
+      <c r="H15" s="4">
+        <v>85</v>
+      </c>
+      <c r="I15" s="4">
+        <v>46</v>
+      </c>
+      <c r="J15" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6.78</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4">
+        <v>136</v>
+      </c>
+      <c r="G16" s="4">
+        <v>104</v>
+      </c>
+      <c r="H16" s="4">
+        <v>104</v>
+      </c>
+      <c r="I16" s="4">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>87</v>
+      </c>
+      <c r="F17" s="4">
+        <v>135</v>
+      </c>
+      <c r="G17" s="4">
+        <v>116</v>
+      </c>
+      <c r="H17" s="4">
+        <v>114</v>
+      </c>
+      <c r="I17" s="4">
+        <v>56</v>
+      </c>
+      <c r="J17" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="D18" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>81</v>
+      </c>
+      <c r="F18" s="4">
+        <v>101</v>
+      </c>
+      <c r="G18" s="4">
+        <v>98</v>
+      </c>
+      <c r="H18" s="4">
+        <v>116</v>
+      </c>
+      <c r="I18" s="4">
+        <v>49</v>
+      </c>
+      <c r="J18" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4">
+        <v>108</v>
+      </c>
+      <c r="G19" s="4">
+        <v>122</v>
+      </c>
+      <c r="H19" s="4">
+        <v>118</v>
+      </c>
+      <c r="I19" s="4">
+        <v>58</v>
+      </c>
+      <c r="J19" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6.73</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4">
+        <v>114</v>
+      </c>
+      <c r="G20" s="4">
+        <v>90</v>
+      </c>
+      <c r="H20" s="4">
+        <v>94</v>
+      </c>
+      <c r="I20" s="4">
+        <v>96</v>
+      </c>
+      <c r="J20" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7.25</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4">
+        <v>115</v>
+      </c>
+      <c r="G21" s="4">
+        <v>104</v>
+      </c>
+      <c r="H21" s="4">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4">
+        <v>94</v>
+      </c>
+      <c r="J21" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.15</v>
+      </c>
+      <c r="D22" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>91</v>
+      </c>
+      <c r="F22" s="4">
+        <v>126</v>
+      </c>
+      <c r="G22" s="4">
+        <v>113</v>
+      </c>
+      <c r="H22" s="4">
+        <v>88</v>
+      </c>
+      <c r="I22" s="4">
+        <v>76</v>
+      </c>
+      <c r="J22" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6.63</v>
+      </c>
+      <c r="D23" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4">
+        <v>148</v>
+      </c>
+      <c r="G23" s="4">
+        <v>125</v>
+      </c>
+      <c r="H23" s="4">
+        <v>96</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.52</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4">
+        <v>125</v>
+      </c>
+      <c r="G24" s="4">
+        <v>97</v>
+      </c>
+      <c r="H24" s="4">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4">
+        <v>49</v>
+      </c>
+      <c r="J24" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7.49</v>
+      </c>
+      <c r="D25" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4">
+        <v>93</v>
+      </c>
+      <c r="H25" s="4">
+        <v>85</v>
+      </c>
+      <c r="I25" s="4">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6.91</v>
+      </c>
+      <c r="D26" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4">
+        <v>102</v>
+      </c>
+      <c r="G26" s="4">
+        <v>92</v>
+      </c>
+      <c r="H26" s="4">
+        <v>92</v>
+      </c>
+      <c r="I26" s="4">
+        <v>77</v>
+      </c>
+      <c r="J26" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6.38</v>
+      </c>
+      <c r="D27" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4">
+        <v>112</v>
+      </c>
+      <c r="G27" s="4">
+        <v>127</v>
+      </c>
+      <c r="H27" s="4">
+        <v>102</v>
+      </c>
+      <c r="I27" s="4">
+        <v>49</v>
+      </c>
+      <c r="J27" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6.49</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4">
+        <v>96</v>
+      </c>
+      <c r="I28" s="4">
+        <v>86</v>
+      </c>
+      <c r="J28" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6.95</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4">
+        <v>129</v>
+      </c>
+      <c r="H29" s="4">
+        <v>80</v>
+      </c>
+      <c r="I29" s="4">
+        <v>95</v>
+      </c>
+      <c r="J29" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>56</v>
+      </c>
+      <c r="F30" s="4">
+        <v>106</v>
+      </c>
+      <c r="G30" s="4">
+        <v>107</v>
+      </c>
+      <c r="H30" s="4">
+        <v>92</v>
+      </c>
+      <c r="I30" s="4">
+        <v>67</v>
+      </c>
+      <c r="J30" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="D31" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>83</v>
+      </c>
+      <c r="F31" s="4">
+        <v>117</v>
+      </c>
+      <c r="G31" s="4">
+        <v>101</v>
+      </c>
+      <c r="H31" s="4">
+        <v>86</v>
+      </c>
+      <c r="I31" s="4">
+        <v>81</v>
+      </c>
+      <c r="J31" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
+        <v>149</v>
+      </c>
+      <c r="G32" s="4">
+        <v>105</v>
+      </c>
+      <c r="H32" s="4">
+        <v>84</v>
+      </c>
+      <c r="I32" s="4">
+        <v>71</v>
+      </c>
+      <c r="J32" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6.72</v>
+      </c>
+      <c r="D33" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>88</v>
+      </c>
+      <c r="F33" s="4">
+        <v>141</v>
+      </c>
+      <c r="G33" s="4">
+        <v>115</v>
+      </c>
+      <c r="H33" s="4">
+        <v>102</v>
+      </c>
+      <c r="I33" s="4">
+        <v>80</v>
+      </c>
+      <c r="J33" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="D34" s="4">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4">
+        <v>106</v>
+      </c>
+      <c r="G34" s="4">
+        <v>93</v>
+      </c>
+      <c r="H34" s="4">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4">
+        <v>51</v>
+      </c>
+      <c r="J34" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6.48</v>
+      </c>
+      <c r="D35" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>50</v>
+      </c>
+      <c r="F35" s="4">
+        <v>117</v>
+      </c>
+      <c r="G35" s="4">
+        <v>122</v>
+      </c>
+      <c r="H35" s="4">
+        <v>104</v>
+      </c>
+      <c r="I35" s="4">
+        <v>40</v>
+      </c>
+      <c r="J35" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6">
+        <v>6.07</v>
+      </c>
+      <c r="D36" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4">
+        <v>129</v>
+      </c>
+      <c r="G36" s="4">
+        <v>125</v>
+      </c>
+      <c r="H36" s="4">
+        <v>87</v>
+      </c>
+      <c r="I36" s="4">
+        <v>86</v>
+      </c>
+      <c r="J36" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7.16</v>
+      </c>
+      <c r="D37" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4">
+        <v>117</v>
+      </c>
+      <c r="G37" s="4">
+        <v>106</v>
+      </c>
+      <c r="H37" s="4">
+        <v>80</v>
+      </c>
+      <c r="I37" s="4">
+        <v>60</v>
+      </c>
+      <c r="J37" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6.87</v>
+      </c>
+      <c r="D38" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>51</v>
+      </c>
+      <c r="F38" s="4">
+        <v>132</v>
+      </c>
+      <c r="G38" s="4">
+        <v>102</v>
+      </c>
+      <c r="H38" s="4">
+        <v>108</v>
+      </c>
+      <c r="I38" s="4">
+        <v>83</v>
+      </c>
+      <c r="J38" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="D39" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4">
+        <v>147</v>
+      </c>
+      <c r="G39" s="4">
+        <v>94</v>
+      </c>
+      <c r="H39" s="4">
+        <v>97</v>
+      </c>
+      <c r="I39" s="4">
+        <v>92</v>
+      </c>
+      <c r="J39" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6.53</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4">
+        <v>138</v>
+      </c>
+      <c r="G40" s="4">
+        <v>94</v>
+      </c>
+      <c r="H40" s="4">
+        <v>96</v>
+      </c>
+      <c r="I40" s="4">
+        <v>44</v>
+      </c>
+      <c r="J40" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6">
+        <v>6.09</v>
+      </c>
+      <c r="D41" s="4">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4">
+        <v>71</v>
+      </c>
+      <c r="F41" s="4">
+        <v>134</v>
+      </c>
+      <c r="G41" s="4">
+        <v>101</v>
+      </c>
+      <c r="H41" s="4">
+        <v>113</v>
+      </c>
+      <c r="I41" s="4">
+        <v>66</v>
+      </c>
+      <c r="J41" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="D42" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>72</v>
+      </c>
+      <c r="F42" s="4">
+        <v>147</v>
+      </c>
+      <c r="G42" s="4">
+        <v>109</v>
+      </c>
+      <c r="H42" s="4">
+        <v>112</v>
+      </c>
+      <c r="I42" s="4">
+        <v>49</v>
+      </c>
+      <c r="J42" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7.32</v>
+      </c>
+      <c r="D43" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>58</v>
+      </c>
+      <c r="F43" s="4">
+        <v>141</v>
+      </c>
+      <c r="G43" s="4">
+        <v>98</v>
+      </c>
+      <c r="H43" s="4">
+        <v>113</v>
+      </c>
+      <c r="I43" s="4">
+        <v>97</v>
+      </c>
+      <c r="J43" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6.14</v>
+      </c>
+      <c r="D44" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E44" s="4">
+        <v>56</v>
+      </c>
+      <c r="F44" s="4">
+        <v>101</v>
+      </c>
+      <c r="G44" s="4">
+        <v>112</v>
+      </c>
+      <c r="H44" s="4">
+        <v>117</v>
+      </c>
+      <c r="I44" s="4">
+        <v>72</v>
+      </c>
+      <c r="J44" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>7.48</v>
+      </c>
+      <c r="D45" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="E45" s="4">
+        <v>86</v>
+      </c>
+      <c r="F45" s="4">
+        <v>107</v>
+      </c>
+      <c r="G45" s="4">
+        <v>126</v>
+      </c>
+      <c r="H45" s="4">
+        <v>119</v>
+      </c>
+      <c r="I45" s="4">
+        <v>43</v>
+      </c>
+      <c r="J45" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>67</v>
+      </c>
+      <c r="F46" s="4">
+        <v>125</v>
+      </c>
+      <c r="G46" s="4">
+        <v>102</v>
+      </c>
+      <c r="H46" s="4">
+        <v>113</v>
+      </c>
+      <c r="I46" s="4">
+        <v>66</v>
+      </c>
+      <c r="J46" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="6">
+        <v>7.09</v>
+      </c>
+      <c r="D47" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>79</v>
+      </c>
+      <c r="F47" s="4">
+        <v>137</v>
+      </c>
+      <c r="G47" s="4">
+        <v>109</v>
+      </c>
+      <c r="H47" s="4">
+        <v>106</v>
+      </c>
+      <c r="I47" s="4">
+        <v>49</v>
+      </c>
+      <c r="J47" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4">
+        <v>3</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6.33</v>
+      </c>
+      <c r="D48" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>82</v>
+      </c>
+      <c r="F48" s="4">
+        <v>143</v>
+      </c>
+      <c r="G48" s="4">
+        <v>114</v>
+      </c>
+      <c r="H48" s="4">
+        <v>100</v>
+      </c>
+      <c r="I48" s="4">
+        <v>83</v>
+      </c>
+      <c r="J48" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7.43</v>
+      </c>
+      <c r="D49" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>83</v>
+      </c>
+      <c r="F49" s="4">
+        <v>117</v>
+      </c>
+      <c r="G49" s="4">
+        <v>122</v>
+      </c>
+      <c r="H49" s="4">
+        <v>112</v>
+      </c>
+      <c r="I49" s="4">
+        <v>61</v>
+      </c>
+      <c r="J49" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D50" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>76</v>
+      </c>
+      <c r="F50" s="4">
+        <v>137</v>
+      </c>
+      <c r="G50" s="4">
+        <v>129</v>
+      </c>
+      <c r="H50" s="4">
+        <v>88</v>
+      </c>
+      <c r="I50" s="4">
+        <v>94</v>
+      </c>
+      <c r="J50" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="D51" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E51" s="4">
+        <v>77</v>
+      </c>
+      <c r="F51" s="4">
+        <v>129</v>
+      </c>
+      <c r="G51" s="4">
+        <v>108</v>
+      </c>
+      <c r="H51" s="4">
+        <v>97</v>
+      </c>
+      <c r="I51" s="4">
+        <v>62</v>
+      </c>
+      <c r="J51" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6.59</v>
+      </c>
+      <c r="D52" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>66</v>
+      </c>
+      <c r="F52" s="4">
+        <v>106</v>
+      </c>
+      <c r="G52" s="4">
+        <v>112</v>
+      </c>
+      <c r="H52" s="4">
+        <v>106</v>
+      </c>
+      <c r="I52" s="4">
+        <v>83</v>
+      </c>
+      <c r="J52" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="6">
+        <v>7.12</v>
+      </c>
+      <c r="D53" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E53" s="4">
+        <v>95</v>
+      </c>
+      <c r="F53" s="4">
+        <v>105</v>
+      </c>
+      <c r="G53" s="4">
+        <v>112</v>
+      </c>
+      <c r="H53" s="4">
+        <v>109</v>
+      </c>
+      <c r="I53" s="4">
+        <v>62</v>
+      </c>
+      <c r="J53" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D54" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E54" s="4">
+        <v>69</v>
+      </c>
+      <c r="F54" s="4">
+        <v>146</v>
+      </c>
+      <c r="G54" s="4">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4">
+        <v>101</v>
+      </c>
+      <c r="I54" s="4">
+        <v>79</v>
+      </c>
+      <c r="J54" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="D55" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>73</v>
+      </c>
+      <c r="F55" s="4">
+        <v>126</v>
+      </c>
+      <c r="G55" s="4">
+        <v>112</v>
+      </c>
+      <c r="H55" s="4">
+        <v>114</v>
+      </c>
+      <c r="I55" s="4">
+        <v>76</v>
+      </c>
+      <c r="J55" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6.41</v>
+      </c>
+      <c r="D56" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>81</v>
+      </c>
+      <c r="F56" s="4">
+        <v>141</v>
+      </c>
+      <c r="G56" s="4">
+        <v>121</v>
+      </c>
+      <c r="H56" s="4">
+        <v>113</v>
+      </c>
+      <c r="I56" s="4">
+        <v>55</v>
+      </c>
+      <c r="J56" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="D57" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>92</v>
+      </c>
+      <c r="F57" s="4">
+        <v>116</v>
+      </c>
+      <c r="G57" s="4">
+        <v>129</v>
+      </c>
+      <c r="H57" s="4">
+        <v>115</v>
+      </c>
+      <c r="I57" s="4">
+        <v>50</v>
+      </c>
+      <c r="J57" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6.73</v>
+      </c>
+      <c r="D58" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>71</v>
+      </c>
+      <c r="F58" s="4">
+        <v>103</v>
+      </c>
+      <c r="G58" s="4">
+        <v>99</v>
+      </c>
+      <c r="H58" s="4">
+        <v>83</v>
+      </c>
+      <c r="I58" s="4">
+        <v>44</v>
+      </c>
+      <c r="J58" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="D59" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E59" s="4">
+        <v>96</v>
+      </c>
+      <c r="F59" s="4">
+        <v>100</v>
+      </c>
+      <c r="G59" s="4">
+        <v>105</v>
+      </c>
+      <c r="H59" s="4">
+        <v>94</v>
+      </c>
+      <c r="I59" s="4">
+        <v>64</v>
+      </c>
+      <c r="J59" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6.16</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="E60" s="4">
+        <v>76</v>
+      </c>
+      <c r="F60" s="4">
+        <v>129</v>
+      </c>
+      <c r="G60" s="4">
+        <v>107</v>
+      </c>
+      <c r="H60" s="4">
+        <v>80</v>
+      </c>
+      <c r="I60" s="4">
+        <v>71</v>
+      </c>
+      <c r="J60" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="6">
+        <v>7.42</v>
+      </c>
+      <c r="D61" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>92</v>
+      </c>
+      <c r="F61" s="4">
+        <v>114</v>
+      </c>
+      <c r="G61" s="4">
+        <v>121</v>
+      </c>
+      <c r="H61" s="4">
+        <v>95</v>
+      </c>
+      <c r="I61" s="4">
+        <v>93</v>
+      </c>
+      <c r="J61" s="4">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,1986 +2657,6 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>7.38</v>
-      </c>
-      <c r="D2" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4">
-        <v>101</v>
-      </c>
-      <c r="G2" s="4">
-        <v>109</v>
-      </c>
-      <c r="H2" s="4">
-        <v>110</v>
-      </c>
-      <c r="I2" s="4">
-        <v>66</v>
-      </c>
-      <c r="J2" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>7.19</v>
-      </c>
-      <c r="D3" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4">
-        <v>144</v>
-      </c>
-      <c r="G3" s="4">
-        <v>106</v>
-      </c>
-      <c r="H3" s="4">
-        <v>89</v>
-      </c>
-      <c r="I3" s="4">
-        <v>92</v>
-      </c>
-      <c r="J3" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4">
-        <v>139</v>
-      </c>
-      <c r="G4" s="4">
-        <v>105</v>
-      </c>
-      <c r="H4" s="4">
-        <v>110</v>
-      </c>
-      <c r="I4" s="4">
-        <v>94</v>
-      </c>
-      <c r="J4" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>62</v>
-      </c>
-      <c r="F5" s="4">
-        <v>143</v>
-      </c>
-      <c r="G5" s="4">
-        <v>127</v>
-      </c>
-      <c r="H5" s="4">
-        <v>113</v>
-      </c>
-      <c r="I5" s="4">
-        <v>49</v>
-      </c>
-      <c r="J5" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="D6" s="4">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>94</v>
-      </c>
-      <c r="F6" s="4">
-        <v>116</v>
-      </c>
-      <c r="G6" s="4">
-        <v>120</v>
-      </c>
-      <c r="H6" s="4">
-        <v>104</v>
-      </c>
-      <c r="I6" s="4">
-        <v>88</v>
-      </c>
-      <c r="J6" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D7" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4">
-        <v>141</v>
-      </c>
-      <c r="G7" s="4">
-        <v>113</v>
-      </c>
-      <c r="H7" s="4">
-        <v>109</v>
-      </c>
-      <c r="I7" s="4">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7.43</v>
-      </c>
-      <c r="D8" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>79</v>
-      </c>
-      <c r="F8" s="4">
-        <v>109</v>
-      </c>
-      <c r="G8" s="4">
-        <v>126</v>
-      </c>
-      <c r="H8" s="4">
-        <v>91</v>
-      </c>
-      <c r="I8" s="4">
-        <v>76</v>
-      </c>
-      <c r="J8" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6.33</v>
-      </c>
-      <c r="D9" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4">
-        <v>103</v>
-      </c>
-      <c r="G9" s="4">
-        <v>98</v>
-      </c>
-      <c r="H9" s="4">
-        <v>93</v>
-      </c>
-      <c r="I9" s="4">
-        <v>54</v>
-      </c>
-      <c r="J9" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6.31</v>
-      </c>
-      <c r="D10" s="4">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4">
-        <v>106</v>
-      </c>
-      <c r="G10" s="4">
-        <v>118</v>
-      </c>
-      <c r="H10" s="4">
-        <v>93</v>
-      </c>
-      <c r="I10" s="4">
-        <v>48</v>
-      </c>
-      <c r="J10" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6.84</v>
-      </c>
-      <c r="D11" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>68</v>
-      </c>
-      <c r="F11" s="4">
-        <v>146</v>
-      </c>
-      <c r="G11" s="4">
-        <v>115</v>
-      </c>
-      <c r="H11" s="4">
-        <v>85</v>
-      </c>
-      <c r="I11" s="4">
-        <v>64</v>
-      </c>
-      <c r="J11" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4">
-        <v>113</v>
-      </c>
-      <c r="G12" s="4">
-        <v>120</v>
-      </c>
-      <c r="H12" s="4">
-        <v>110</v>
-      </c>
-      <c r="I12" s="4">
-        <v>42</v>
-      </c>
-      <c r="J12" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7.42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>97</v>
-      </c>
-      <c r="F13" s="4">
-        <v>114</v>
-      </c>
-      <c r="G13" s="4">
-        <v>111</v>
-      </c>
-      <c r="H13" s="4">
-        <v>91</v>
-      </c>
-      <c r="I13" s="4">
-        <v>61</v>
-      </c>
-      <c r="J13" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4">
-        <v>107</v>
-      </c>
-      <c r="G14" s="4">
-        <v>121</v>
-      </c>
-      <c r="H14" s="4">
-        <v>98</v>
-      </c>
-      <c r="I14" s="4">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="D15" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4">
-        <v>106</v>
-      </c>
-      <c r="G15" s="4">
-        <v>113</v>
-      </c>
-      <c r="H15" s="4">
-        <v>85</v>
-      </c>
-      <c r="I15" s="4">
-        <v>46</v>
-      </c>
-      <c r="J15" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6.78</v>
-      </c>
-      <c r="D16" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>97</v>
-      </c>
-      <c r="F16" s="4">
-        <v>136</v>
-      </c>
-      <c r="G16" s="4">
-        <v>104</v>
-      </c>
-      <c r="H16" s="4">
-        <v>104</v>
-      </c>
-      <c r="I16" s="4">
-        <v>42</v>
-      </c>
-      <c r="J16" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>87</v>
-      </c>
-      <c r="F17" s="4">
-        <v>135</v>
-      </c>
-      <c r="G17" s="4">
-        <v>116</v>
-      </c>
-      <c r="H17" s="4">
-        <v>114</v>
-      </c>
-      <c r="I17" s="4">
-        <v>56</v>
-      </c>
-      <c r="J17" s="4">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>11.6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>81</v>
-      </c>
-      <c r="F18" s="4">
-        <v>101</v>
-      </c>
-      <c r="G18" s="4">
-        <v>98</v>
-      </c>
-      <c r="H18" s="4">
-        <v>116</v>
-      </c>
-      <c r="I18" s="4">
-        <v>49</v>
-      </c>
-      <c r="J18" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>62</v>
-      </c>
-      <c r="F19" s="4">
-        <v>108</v>
-      </c>
-      <c r="G19" s="4">
-        <v>122</v>
-      </c>
-      <c r="H19" s="4">
-        <v>118</v>
-      </c>
-      <c r="I19" s="4">
-        <v>58</v>
-      </c>
-      <c r="J19" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6.73</v>
-      </c>
-      <c r="D20" s="4">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4">
-        <v>92</v>
-      </c>
-      <c r="F20" s="4">
-        <v>114</v>
-      </c>
-      <c r="G20" s="4">
-        <v>90</v>
-      </c>
-      <c r="H20" s="4">
-        <v>94</v>
-      </c>
-      <c r="I20" s="4">
-        <v>96</v>
-      </c>
-      <c r="J20" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6">
-        <v>7.25</v>
-      </c>
-      <c r="D21" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="E21" s="4">
-        <v>50</v>
-      </c>
-      <c r="F21" s="4">
-        <v>115</v>
-      </c>
-      <c r="G21" s="4">
-        <v>104</v>
-      </c>
-      <c r="H21" s="4">
-        <v>93</v>
-      </c>
-      <c r="I21" s="4">
-        <v>94</v>
-      </c>
-      <c r="J21" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7.15</v>
-      </c>
-      <c r="D22" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>91</v>
-      </c>
-      <c r="F22" s="4">
-        <v>126</v>
-      </c>
-      <c r="G22" s="4">
-        <v>113</v>
-      </c>
-      <c r="H22" s="4">
-        <v>88</v>
-      </c>
-      <c r="I22" s="4">
-        <v>76</v>
-      </c>
-      <c r="J22" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6.63</v>
-      </c>
-      <c r="D23" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4">
-        <v>148</v>
-      </c>
-      <c r="G23" s="4">
-        <v>125</v>
-      </c>
-      <c r="H23" s="4">
-        <v>96</v>
-      </c>
-      <c r="I23" s="4">
-        <v>43</v>
-      </c>
-      <c r="J23" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6.52</v>
-      </c>
-      <c r="D24" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>66</v>
-      </c>
-      <c r="F24" s="4">
-        <v>125</v>
-      </c>
-      <c r="G24" s="4">
-        <v>97</v>
-      </c>
-      <c r="H24" s="4">
-        <v>91</v>
-      </c>
-      <c r="I24" s="4">
-        <v>49</v>
-      </c>
-      <c r="J24" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6">
-        <v>7.49</v>
-      </c>
-      <c r="D25" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>69</v>
-      </c>
-      <c r="F25" s="4">
-        <v>124</v>
-      </c>
-      <c r="G25" s="4">
-        <v>93</v>
-      </c>
-      <c r="H25" s="4">
-        <v>85</v>
-      </c>
-      <c r="I25" s="4">
-        <v>46</v>
-      </c>
-      <c r="J25" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6">
-        <v>6.91</v>
-      </c>
-      <c r="D26" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>67</v>
-      </c>
-      <c r="F26" s="4">
-        <v>102</v>
-      </c>
-      <c r="G26" s="4">
-        <v>92</v>
-      </c>
-      <c r="H26" s="4">
-        <v>92</v>
-      </c>
-      <c r="I26" s="4">
-        <v>77</v>
-      </c>
-      <c r="J26" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6.38</v>
-      </c>
-      <c r="D27" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>74</v>
-      </c>
-      <c r="F27" s="4">
-        <v>112</v>
-      </c>
-      <c r="G27" s="4">
-        <v>127</v>
-      </c>
-      <c r="H27" s="4">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4">
-        <v>49</v>
-      </c>
-      <c r="J27" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="D28" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>81</v>
-      </c>
-      <c r="F28" s="4">
-        <v>145</v>
-      </c>
-      <c r="G28" s="4">
-        <v>110</v>
-      </c>
-      <c r="H28" s="4">
-        <v>96</v>
-      </c>
-      <c r="I28" s="4">
-        <v>86</v>
-      </c>
-      <c r="J28" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6.95</v>
-      </c>
-      <c r="D29" s="4">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
-        <v>80</v>
-      </c>
-      <c r="F29" s="4">
-        <v>133</v>
-      </c>
-      <c r="G29" s="4">
-        <v>129</v>
-      </c>
-      <c r="H29" s="4">
-        <v>80</v>
-      </c>
-      <c r="I29" s="4">
-        <v>95</v>
-      </c>
-      <c r="J29" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="6">
-        <v>7.46</v>
-      </c>
-      <c r="D30" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>56</v>
-      </c>
-      <c r="F30" s="4">
-        <v>106</v>
-      </c>
-      <c r="G30" s="4">
-        <v>107</v>
-      </c>
-      <c r="H30" s="4">
-        <v>92</v>
-      </c>
-      <c r="I30" s="4">
-        <v>67</v>
-      </c>
-      <c r="J30" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
-        <v>2</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6.98</v>
-      </c>
-      <c r="D31" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="E31" s="4">
-        <v>83</v>
-      </c>
-      <c r="F31" s="4">
-        <v>117</v>
-      </c>
-      <c r="G31" s="4">
-        <v>101</v>
-      </c>
-      <c r="H31" s="4">
-        <v>86</v>
-      </c>
-      <c r="I31" s="4">
-        <v>81</v>
-      </c>
-      <c r="J31" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="D32" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4">
-        <v>149</v>
-      </c>
-      <c r="G32" s="4">
-        <v>105</v>
-      </c>
-      <c r="H32" s="4">
-        <v>84</v>
-      </c>
-      <c r="I32" s="4">
-        <v>71</v>
-      </c>
-      <c r="J32" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="6">
-        <v>6.72</v>
-      </c>
-      <c r="D33" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>88</v>
-      </c>
-      <c r="F33" s="4">
-        <v>141</v>
-      </c>
-      <c r="G33" s="4">
-        <v>115</v>
-      </c>
-      <c r="H33" s="4">
-        <v>102</v>
-      </c>
-      <c r="I33" s="4">
-        <v>80</v>
-      </c>
-      <c r="J33" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="6">
-        <v>7.21</v>
-      </c>
-      <c r="D34" s="4">
-        <v>13</v>
-      </c>
-      <c r="E34" s="4">
-        <v>54</v>
-      </c>
-      <c r="F34" s="4">
-        <v>106</v>
-      </c>
-      <c r="G34" s="4">
-        <v>93</v>
-      </c>
-      <c r="H34" s="4">
-        <v>99</v>
-      </c>
-      <c r="I34" s="4">
-        <v>51</v>
-      </c>
-      <c r="J34" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="6">
-        <v>6.48</v>
-      </c>
-      <c r="D35" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="E35" s="4">
-        <v>50</v>
-      </c>
-      <c r="F35" s="4">
-        <v>117</v>
-      </c>
-      <c r="G35" s="4">
-        <v>122</v>
-      </c>
-      <c r="H35" s="4">
-        <v>104</v>
-      </c>
-      <c r="I35" s="4">
-        <v>40</v>
-      </c>
-      <c r="J35" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="6">
-        <v>6.07</v>
-      </c>
-      <c r="D36" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>95</v>
-      </c>
-      <c r="F36" s="4">
-        <v>129</v>
-      </c>
-      <c r="G36" s="4">
-        <v>125</v>
-      </c>
-      <c r="H36" s="4">
-        <v>87</v>
-      </c>
-      <c r="I36" s="4">
-        <v>86</v>
-      </c>
-      <c r="J36" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="6">
-        <v>7.16</v>
-      </c>
-      <c r="D37" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>90</v>
-      </c>
-      <c r="F37" s="4">
-        <v>117</v>
-      </c>
-      <c r="G37" s="4">
-        <v>106</v>
-      </c>
-      <c r="H37" s="4">
-        <v>80</v>
-      </c>
-      <c r="I37" s="4">
-        <v>60</v>
-      </c>
-      <c r="J37" s="4">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6">
-        <v>6.87</v>
-      </c>
-      <c r="D38" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>51</v>
-      </c>
-      <c r="F38" s="4">
-        <v>132</v>
-      </c>
-      <c r="G38" s="4">
-        <v>102</v>
-      </c>
-      <c r="H38" s="4">
-        <v>108</v>
-      </c>
-      <c r="I38" s="4">
-        <v>83</v>
-      </c>
-      <c r="J38" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="6">
-        <v>6.37</v>
-      </c>
-      <c r="D39" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E39" s="4">
-        <v>81</v>
-      </c>
-      <c r="F39" s="4">
-        <v>147</v>
-      </c>
-      <c r="G39" s="4">
-        <v>94</v>
-      </c>
-      <c r="H39" s="4">
-        <v>97</v>
-      </c>
-      <c r="I39" s="4">
-        <v>92</v>
-      </c>
-      <c r="J39" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
-        <v>2</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="6">
-        <v>6.53</v>
-      </c>
-      <c r="D40" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E40" s="4">
-        <v>81</v>
-      </c>
-      <c r="F40" s="4">
-        <v>138</v>
-      </c>
-      <c r="G40" s="4">
-        <v>94</v>
-      </c>
-      <c r="H40" s="4">
-        <v>96</v>
-      </c>
-      <c r="I40" s="4">
-        <v>44</v>
-      </c>
-      <c r="J40" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="D41" s="4">
-        <v>13</v>
-      </c>
-      <c r="E41" s="4">
-        <v>71</v>
-      </c>
-      <c r="F41" s="4">
-        <v>134</v>
-      </c>
-      <c r="G41" s="4">
-        <v>101</v>
-      </c>
-      <c r="H41" s="4">
-        <v>113</v>
-      </c>
-      <c r="I41" s="4">
-        <v>66</v>
-      </c>
-      <c r="J41" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="6">
-        <v>6.34</v>
-      </c>
-      <c r="D42" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>72</v>
-      </c>
-      <c r="F42" s="4">
-        <v>147</v>
-      </c>
-      <c r="G42" s="4">
-        <v>109</v>
-      </c>
-      <c r="H42" s="4">
-        <v>112</v>
-      </c>
-      <c r="I42" s="4">
-        <v>49</v>
-      </c>
-      <c r="J42" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
-        <v>3</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="6">
-        <v>7.32</v>
-      </c>
-      <c r="D43" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E43" s="4">
-        <v>58</v>
-      </c>
-      <c r="F43" s="4">
-        <v>141</v>
-      </c>
-      <c r="G43" s="4">
-        <v>98</v>
-      </c>
-      <c r="H43" s="4">
-        <v>113</v>
-      </c>
-      <c r="I43" s="4">
-        <v>97</v>
-      </c>
-      <c r="J43" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="6">
-        <v>6.14</v>
-      </c>
-      <c r="D44" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="E44" s="4">
-        <v>56</v>
-      </c>
-      <c r="F44" s="4">
-        <v>101</v>
-      </c>
-      <c r="G44" s="4">
-        <v>112</v>
-      </c>
-      <c r="H44" s="4">
-        <v>117</v>
-      </c>
-      <c r="I44" s="4">
-        <v>72</v>
-      </c>
-      <c r="J44" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="6">
-        <v>7.48</v>
-      </c>
-      <c r="D45" s="6">
-        <v>13.7</v>
-      </c>
-      <c r="E45" s="4">
-        <v>86</v>
-      </c>
-      <c r="F45" s="4">
-        <v>107</v>
-      </c>
-      <c r="G45" s="4">
-        <v>126</v>
-      </c>
-      <c r="H45" s="4">
-        <v>119</v>
-      </c>
-      <c r="I45" s="4">
-        <v>43</v>
-      </c>
-      <c r="J45" s="4">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
-        <v>3</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>67</v>
-      </c>
-      <c r="F46" s="4">
-        <v>125</v>
-      </c>
-      <c r="G46" s="4">
-        <v>102</v>
-      </c>
-      <c r="H46" s="4">
-        <v>113</v>
-      </c>
-      <c r="I46" s="4">
-        <v>66</v>
-      </c>
-      <c r="J46" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
-        <v>3</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6">
-        <v>7.09</v>
-      </c>
-      <c r="D47" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>79</v>
-      </c>
-      <c r="F47" s="4">
-        <v>137</v>
-      </c>
-      <c r="G47" s="4">
-        <v>109</v>
-      </c>
-      <c r="H47" s="4">
-        <v>106</v>
-      </c>
-      <c r="I47" s="4">
-        <v>49</v>
-      </c>
-      <c r="J47" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
-        <v>3</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="6">
-        <v>6.33</v>
-      </c>
-      <c r="D48" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>82</v>
-      </c>
-      <c r="F48" s="4">
-        <v>143</v>
-      </c>
-      <c r="G48" s="4">
-        <v>114</v>
-      </c>
-      <c r="H48" s="4">
-        <v>100</v>
-      </c>
-      <c r="I48" s="4">
-        <v>83</v>
-      </c>
-      <c r="J48" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
-        <v>3</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="6">
-        <v>7.43</v>
-      </c>
-      <c r="D49" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="E49" s="4">
-        <v>83</v>
-      </c>
-      <c r="F49" s="4">
-        <v>117</v>
-      </c>
-      <c r="G49" s="4">
-        <v>122</v>
-      </c>
-      <c r="H49" s="4">
-        <v>112</v>
-      </c>
-      <c r="I49" s="4">
-        <v>61</v>
-      </c>
-      <c r="J49" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
-        <v>3</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D50" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E50" s="4">
-        <v>76</v>
-      </c>
-      <c r="F50" s="4">
-        <v>137</v>
-      </c>
-      <c r="G50" s="4">
-        <v>129</v>
-      </c>
-      <c r="H50" s="4">
-        <v>88</v>
-      </c>
-      <c r="I50" s="4">
-        <v>94</v>
-      </c>
-      <c r="J50" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4">
-        <v>3</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="6">
-        <v>6.04</v>
-      </c>
-      <c r="D51" s="6">
-        <v>12.4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>77</v>
-      </c>
-      <c r="F51" s="4">
-        <v>129</v>
-      </c>
-      <c r="G51" s="4">
-        <v>108</v>
-      </c>
-      <c r="H51" s="4">
-        <v>97</v>
-      </c>
-      <c r="I51" s="4">
-        <v>62</v>
-      </c>
-      <c r="J51" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
-        <v>3</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="6">
-        <v>6.59</v>
-      </c>
-      <c r="D52" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>66</v>
-      </c>
-      <c r="F52" s="4">
-        <v>106</v>
-      </c>
-      <c r="G52" s="4">
-        <v>112</v>
-      </c>
-      <c r="H52" s="4">
-        <v>106</v>
-      </c>
-      <c r="I52" s="4">
-        <v>83</v>
-      </c>
-      <c r="J52" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
-        <v>3</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="6">
-        <v>7.12</v>
-      </c>
-      <c r="D53" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="E53" s="4">
-        <v>95</v>
-      </c>
-      <c r="F53" s="4">
-        <v>105</v>
-      </c>
-      <c r="G53" s="4">
-        <v>112</v>
-      </c>
-      <c r="H53" s="4">
-        <v>109</v>
-      </c>
-      <c r="I53" s="4">
-        <v>62</v>
-      </c>
-      <c r="J53" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4">
-        <v>3</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="D54" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="E54" s="4">
-        <v>69</v>
-      </c>
-      <c r="F54" s="4">
-        <v>146</v>
-      </c>
-      <c r="G54" s="4">
-        <v>114</v>
-      </c>
-      <c r="H54" s="4">
-        <v>101</v>
-      </c>
-      <c r="I54" s="4">
-        <v>79</v>
-      </c>
-      <c r="J54" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4">
-        <v>3</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="6">
-        <v>6.15</v>
-      </c>
-      <c r="D55" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E55" s="4">
-        <v>73</v>
-      </c>
-      <c r="F55" s="4">
-        <v>126</v>
-      </c>
-      <c r="G55" s="4">
-        <v>112</v>
-      </c>
-      <c r="H55" s="4">
-        <v>114</v>
-      </c>
-      <c r="I55" s="4">
-        <v>76</v>
-      </c>
-      <c r="J55" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4">
-        <v>3</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="6">
-        <v>6.41</v>
-      </c>
-      <c r="D56" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>81</v>
-      </c>
-      <c r="F56" s="4">
-        <v>141</v>
-      </c>
-      <c r="G56" s="4">
-        <v>121</v>
-      </c>
-      <c r="H56" s="4">
-        <v>113</v>
-      </c>
-      <c r="I56" s="4">
-        <v>55</v>
-      </c>
-      <c r="J56" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4">
-        <v>3</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="6">
-        <v>7.06</v>
-      </c>
-      <c r="D57" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>92</v>
-      </c>
-      <c r="F57" s="4">
-        <v>116</v>
-      </c>
-      <c r="G57" s="4">
-        <v>129</v>
-      </c>
-      <c r="H57" s="4">
-        <v>115</v>
-      </c>
-      <c r="I57" s="4">
-        <v>50</v>
-      </c>
-      <c r="J57" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4">
-        <v>3</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="6">
-        <v>6.73</v>
-      </c>
-      <c r="D58" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="E58" s="4">
-        <v>71</v>
-      </c>
-      <c r="F58" s="4">
-        <v>103</v>
-      </c>
-      <c r="G58" s="4">
-        <v>99</v>
-      </c>
-      <c r="H58" s="4">
-        <v>83</v>
-      </c>
-      <c r="I58" s="4">
-        <v>44</v>
-      </c>
-      <c r="J58" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4">
-        <v>3</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="D59" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="E59" s="4">
-        <v>96</v>
-      </c>
-      <c r="F59" s="4">
-        <v>100</v>
-      </c>
-      <c r="G59" s="4">
-        <v>105</v>
-      </c>
-      <c r="H59" s="4">
-        <v>94</v>
-      </c>
-      <c r="I59" s="4">
-        <v>64</v>
-      </c>
-      <c r="J59" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4">
-        <v>3</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="D60" s="6">
-        <v>13.8</v>
-      </c>
-      <c r="E60" s="4">
-        <v>76</v>
-      </c>
-      <c r="F60" s="4">
-        <v>129</v>
-      </c>
-      <c r="G60" s="4">
-        <v>107</v>
-      </c>
-      <c r="H60" s="4">
-        <v>80</v>
-      </c>
-      <c r="I60" s="4">
-        <v>71</v>
-      </c>
-      <c r="J60" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4">
-        <v>3</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="6">
-        <v>7.42</v>
-      </c>
-      <c r="D61" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>92</v>
-      </c>
-      <c r="F61" s="4">
-        <v>114</v>
-      </c>
-      <c r="G61" s="4">
-        <v>121</v>
-      </c>
-      <c r="H61" s="4">
-        <v>95</v>
-      </c>
-      <c r="I61" s="4">
-        <v>93</v>
-      </c>
-      <c r="J61" s="4">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:J61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4">
         <v>1</v>
